--- a/data/raw_data_station_801120_statistics.xlsx
+++ b/data/raw_data_station_801120_statistics.xlsx
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve"> - attr(*, "tzone")= chr "GMT"</t>
   </si>
   <si>
-    <t xml:space="preserve"> $ nt.series.dt        : POSIXct[1:181], format: "1986-04-08 12:00:00" "1986-04-17 12:00:00" ...</t>
+    <t xml:space="preserve"> $ nt.series.dt        : POSIXct[1:181], format: "1986-04-08 12:00:00" "1986-04-17 12:00:00" "1986-05-02 12:00:00" ...</t>
   </si>
   <si>
     <t xml:space="preserve"> $ t.length.time       : num 0</t>

--- a/data/raw_data_station_801120_statistics.xlsx
+++ b/data/raw_data_station_801120_statistics.xlsx
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve"> - attr(*, "tzone")= chr "GMT"</t>
   </si>
   <si>
-    <t xml:space="preserve"> $ nt.series.dt        : POSIXct[1:181], format: "1986-04-08 12:00:00" "1986-04-17 12:00:00" "1986-05-02 12:00:00" ...</t>
+    <t xml:space="preserve"> $ nt.series.dt        : POSIXct[1:181], format: "1986-04-08 12:00:00" "1986-04-17 12:00:00" ...</t>
   </si>
   <si>
     <t xml:space="preserve"> $ t.length.time       : num 0</t>
